--- a/media/5fdababd5367e58f7fe93ecf.xlsx
+++ b/media/5fdababd5367e58f7fe93ecf.xlsx
@@ -14,29 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>college</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>stuclass</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>标题1</t>
   </si>
   <si>
@@ -58,34 +49,73 @@
     <t>created_time</t>
   </si>
   <si>
-    <t>5fdabe7de4742bcd64d04fac</t>
-  </si>
-  <si>
-    <t>李治远</t>
-  </si>
-  <si>
-    <t>15605217718</t>
-  </si>
-  <si>
-    <t>07172757</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>323</t>
+    <t>601a29e91be5323cf5f7e359</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>zyuanlee</t>
+  </si>
+  <si>
+    <t>admin@cc.com</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>222</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>10-12-09</t>
+    <t>12-43-16</t>
   </si>
   <si>
     <t>5fdababd5367e58f7fe93ecf</t>
   </si>
   <si>
-    <t>2020-12-17 10:12:13</t>
+    <t>2021-02-03 12:43:21</t>
+  </si>
+  <si>
+    <t>604c85a704eaa747b9905613</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>05-28-05</t>
+  </si>
+  <si>
+    <t>2021-03-13 17:28:07</t>
+  </si>
+  <si>
+    <t>604c862304eaa747b9905614</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>4234</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>05-30-32</t>
+  </si>
+  <si>
+    <t>2021-03-13 17:30:11</t>
+  </si>
+  <si>
+    <t>604c862604eaa747b9905615</t>
+  </si>
+  <si>
+    <t>2021-03-13 17:30:14</t>
   </si>
 </sst>
 </file>
@@ -417,13 +447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,21 +487,21 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
@@ -490,16 +520,112 @@
         <v>20</v>
       </c>
       <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>23</v>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
